--- a/datafiles/game result(player).xlsx
+++ b/datafiles/game result(player).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="90">
   <si>
     <t>Game Id</t>
   </si>
@@ -184,6 +184,158 @@
   </si>
   <si>
     <t>Liverpool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Barcelona</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marc-André ter Stegen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gerard Piqué</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sergio Busquets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pedro Rodríguez</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Andrés Iniesta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Luis Suárez</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lionel Messi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neymar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Javier Mascherano</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marc Bartra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jérémy Mathieu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Claudio Bravo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ivan Rakitić</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xavi Hernández</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jordi Alba</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sergi Roberto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adriano</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Munir El Haddadi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paris</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Salvatore Sirigu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thiago Silva</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lucas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thiago Motta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edinson Cavani</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zlatan Ibrahimović</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blaise Matuidi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maxwell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gregory van der Wiel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marco Verratti</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>David Luiz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nicolas Douchez</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yohan Cabaye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marquinhos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lucas Digne</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ezequiel Lavezzi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adrien Rabiot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Javier Pastore</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -236,14 +388,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -543,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:N73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -588,22 +737,22 @@
       <c r="G1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>25</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>23</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>31</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -650,7 +799,7 @@
       <c r="M2" s="1">
         <v>13</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <v>0.81</v>
       </c>
     </row>
@@ -694,7 +843,7 @@
       <c r="M3" s="1">
         <v>45</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="1">
         <v>0.94</v>
       </c>
     </row>
@@ -738,7 +887,7 @@
       <c r="M4" s="1">
         <v>44</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="1">
         <v>1</v>
       </c>
     </row>
@@ -782,7 +931,7 @@
       <c r="M5" s="1">
         <v>45</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="1">
         <v>0.85</v>
       </c>
     </row>
@@ -826,7 +975,7 @@
       <c r="M6" s="1">
         <v>88</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="1">
         <v>0.98</v>
       </c>
     </row>
@@ -870,7 +1019,7 @@
       <c r="M7" s="1">
         <v>42</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="1">
         <v>0.84</v>
       </c>
     </row>
@@ -914,7 +1063,7 @@
       <c r="M8" s="1">
         <v>46</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="1">
         <v>0.88</v>
       </c>
     </row>
@@ -958,7 +1107,7 @@
       <c r="M9" s="1">
         <v>49</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="1">
         <v>0.88</v>
       </c>
     </row>
@@ -1002,7 +1151,7 @@
       <c r="M10" s="1">
         <v>39</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="1">
         <v>0.87</v>
       </c>
     </row>
@@ -1046,7 +1195,7 @@
       <c r="M11" s="1">
         <v>90</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -1090,7 +1239,7 @@
       <c r="M12" s="1">
         <v>67</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N12" s="1">
         <v>0.86</v>
       </c>
     </row>
@@ -1134,7 +1283,7 @@
       <c r="M13" s="1">
         <v>0</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1178,7 +1327,7 @@
       <c r="M14" s="1">
         <v>17</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N14" s="1">
         <v>0.94</v>
       </c>
     </row>
@@ -1222,7 +1371,7 @@
       <c r="M15" s="1">
         <v>0</v>
       </c>
-      <c r="N15" s="2">
+      <c r="N15" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1266,7 +1415,7 @@
       <c r="M16" s="1">
         <v>0</v>
       </c>
-      <c r="N16" s="2">
+      <c r="N16" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1310,7 +1459,7 @@
       <c r="M17" s="1">
         <v>2</v>
       </c>
-      <c r="N17" s="2">
+      <c r="N17" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1354,7 +1503,7 @@
       <c r="M18" s="1">
         <v>2</v>
       </c>
-      <c r="N18" s="2">
+      <c r="N18" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1398,7 +1547,7 @@
       <c r="M19" s="1">
         <v>0</v>
       </c>
-      <c r="N19" s="2">
+      <c r="N19" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1442,7 +1591,7 @@
       <c r="M20" s="1">
         <v>20</v>
       </c>
-      <c r="N20" s="2">
+      <c r="N20" s="1">
         <v>0.87</v>
       </c>
     </row>
@@ -1486,7 +1635,7 @@
       <c r="M21" s="1">
         <v>25</v>
       </c>
-      <c r="N21" s="2">
+      <c r="N21" s="1">
         <v>0.89</v>
       </c>
     </row>
@@ -1530,7 +1679,7 @@
       <c r="M22" s="1">
         <v>42</v>
       </c>
-      <c r="N22" s="2">
+      <c r="N22" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -1574,7 +1723,7 @@
       <c r="M23" s="1">
         <v>80</v>
       </c>
-      <c r="N23" s="2">
+      <c r="N23" s="1">
         <v>0.93</v>
       </c>
     </row>
@@ -1618,7 +1767,7 @@
       <c r="M24" s="1">
         <v>45</v>
       </c>
-      <c r="N24" s="2">
+      <c r="N24" s="1">
         <v>0.92</v>
       </c>
     </row>
@@ -1662,7 +1811,7 @@
       <c r="M25" s="1">
         <v>49</v>
       </c>
-      <c r="N25" s="2">
+      <c r="N25" s="1">
         <v>0.88</v>
       </c>
     </row>
@@ -1706,7 +1855,7 @@
       <c r="M26" s="1">
         <v>48</v>
       </c>
-      <c r="N26" s="2">
+      <c r="N26" s="1">
         <v>0.96</v>
       </c>
     </row>
@@ -1750,7 +1899,7 @@
       <c r="M27" s="1">
         <v>39</v>
       </c>
-      <c r="N27" s="2">
+      <c r="N27" s="1">
         <v>0.87</v>
       </c>
     </row>
@@ -1794,7 +1943,7 @@
       <c r="M28" s="1">
         <v>26</v>
       </c>
-      <c r="N28" s="2">
+      <c r="N28" s="1">
         <v>0.87</v>
       </c>
     </row>
@@ -1838,7 +1987,7 @@
       <c r="M29" s="1">
         <v>52</v>
       </c>
-      <c r="N29" s="2">
+      <c r="N29" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1882,7 +2031,7 @@
       <c r="M30" s="1">
         <v>14</v>
       </c>
-      <c r="N30" s="2">
+      <c r="N30" s="1">
         <v>0.88</v>
       </c>
     </row>
@@ -1926,7 +2075,7 @@
       <c r="M31" s="1">
         <v>0</v>
       </c>
-      <c r="N31" s="2">
+      <c r="N31" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1970,7 +2119,7 @@
       <c r="M32" s="1">
         <v>0</v>
       </c>
-      <c r="N32" s="2">
+      <c r="N32" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2014,7 +2163,7 @@
       <c r="M33" s="1">
         <v>0</v>
       </c>
-      <c r="N33" s="2">
+      <c r="N33" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2058,7 +2207,7 @@
       <c r="M34" s="1">
         <v>0</v>
       </c>
-      <c r="N34" s="2">
+      <c r="N34" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2102,7 +2251,7 @@
       <c r="M35" s="1">
         <v>21</v>
       </c>
-      <c r="N35" s="2">
+      <c r="N35" s="1">
         <v>0.91</v>
       </c>
     </row>
@@ -2146,7 +2295,7 @@
       <c r="M36" s="1">
         <v>21</v>
       </c>
-      <c r="N36" s="2">
+      <c r="N36" s="1">
         <v>0.81</v>
       </c>
     </row>
@@ -2190,8 +2339,1592 @@
       <c r="M37" s="1">
         <v>16</v>
       </c>
-      <c r="N37" s="2">
-        <v>1</v>
+      <c r="N37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="1">
+        <v>2</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1">
+        <v>23</v>
+      </c>
+      <c r="M38" s="1">
+        <v>22</v>
+      </c>
+      <c r="N38" s="1">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="1">
+        <v>2</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="1">
+        <v>3</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1">
+        <v>79</v>
+      </c>
+      <c r="M39" s="1">
+        <v>77</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="1">
+        <v>2</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="1">
+        <v>5</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1">
+        <v>2</v>
+      </c>
+      <c r="L40" s="1">
+        <v>70</v>
+      </c>
+      <c r="M40" s="1">
+        <v>67</v>
+      </c>
+      <c r="N40" s="1">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="1">
+        <v>2</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="1">
+        <v>7</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+      <c r="J41" s="1">
+        <v>3</v>
+      </c>
+      <c r="K41" s="1">
+        <v>1</v>
+      </c>
+      <c r="L41" s="1">
+        <v>31</v>
+      </c>
+      <c r="M41" s="1">
+        <v>28</v>
+      </c>
+      <c r="N41" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="1">
+        <v>2</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="1">
+        <v>8</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>1</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
+      <c r="L42" s="1">
+        <v>53</v>
+      </c>
+      <c r="M42" s="1">
+        <v>47</v>
+      </c>
+      <c r="N42" s="1">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="1">
+        <v>2</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="1">
+        <v>9</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1">
+        <v>2</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1</v>
+      </c>
+      <c r="I43" s="1">
+        <v>1</v>
+      </c>
+      <c r="J43" s="1">
+        <v>3</v>
+      </c>
+      <c r="K43" s="1">
+        <v>2</v>
+      </c>
+      <c r="L43" s="1">
+        <v>40</v>
+      </c>
+      <c r="M43" s="1">
+        <v>36</v>
+      </c>
+      <c r="N43" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="1">
+        <v>2</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="1">
+        <v>10</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1</v>
+      </c>
+      <c r="G44" s="1">
+        <v>2</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
+      <c r="J44" s="1">
+        <v>1</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0</v>
+      </c>
+      <c r="L44" s="1">
+        <v>57</v>
+      </c>
+      <c r="M44" s="1">
+        <v>54</v>
+      </c>
+      <c r="N44" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="1">
+        <v>2</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="1">
+        <v>11</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1</v>
+      </c>
+      <c r="F45" s="1">
+        <v>2</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
+        <v>1</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0</v>
+      </c>
+      <c r="J45" s="1">
+        <v>1</v>
+      </c>
+      <c r="K45" s="1">
+        <v>3</v>
+      </c>
+      <c r="L45" s="1">
+        <v>54</v>
+      </c>
+      <c r="M45" s="1">
+        <v>45</v>
+      </c>
+      <c r="N45" s="1">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="1">
+        <v>2</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="1">
+        <v>14</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0</v>
+      </c>
+      <c r="J46" s="1">
+        <v>3</v>
+      </c>
+      <c r="K46" s="1">
+        <v>2</v>
+      </c>
+      <c r="L46" s="1">
+        <v>74</v>
+      </c>
+      <c r="M46" s="1">
+        <v>70</v>
+      </c>
+      <c r="N46" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="1">
+        <v>2</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="1">
+        <v>15</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0</v>
+      </c>
+      <c r="L47" s="1">
+        <v>70</v>
+      </c>
+      <c r="M47" s="1">
+        <v>66</v>
+      </c>
+      <c r="N47" s="1">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="1">
+        <v>2</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="1">
+        <v>24</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0</v>
+      </c>
+      <c r="K48" s="1">
+        <v>1</v>
+      </c>
+      <c r="L48" s="1">
+        <v>75</v>
+      </c>
+      <c r="M48" s="1">
+        <v>68</v>
+      </c>
+      <c r="N48" s="1">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" s="1">
+        <v>2</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="1">
+        <v>13</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0</v>
+      </c>
+      <c r="K49" s="1">
+        <v>0</v>
+      </c>
+      <c r="L49" s="1">
+        <v>0</v>
+      </c>
+      <c r="M49" s="1">
+        <v>0</v>
+      </c>
+      <c r="N49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="1">
+        <v>2</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" s="1">
+        <v>4</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0</v>
+      </c>
+      <c r="J50" s="1">
+        <v>1</v>
+      </c>
+      <c r="K50" s="1">
+        <v>0</v>
+      </c>
+      <c r="L50" s="1">
+        <v>16</v>
+      </c>
+      <c r="M50" s="1">
+        <v>16</v>
+      </c>
+      <c r="N50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="1">
+        <v>2</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="1">
+        <v>6</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0</v>
+      </c>
+      <c r="J51" s="1">
+        <v>0</v>
+      </c>
+      <c r="K51" s="1">
+        <v>0</v>
+      </c>
+      <c r="L51" s="1">
+        <v>18</v>
+      </c>
+      <c r="M51" s="1">
+        <v>17</v>
+      </c>
+      <c r="N51" s="1">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="1">
+        <v>2</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" s="1">
+        <v>18</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0</v>
+      </c>
+      <c r="J52" s="1">
+        <v>0</v>
+      </c>
+      <c r="K52" s="1">
+        <v>0</v>
+      </c>
+      <c r="L52" s="1">
+        <v>0</v>
+      </c>
+      <c r="M52" s="1">
+        <v>0</v>
+      </c>
+      <c r="N52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="1">
+        <v>2</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" s="1">
+        <v>20</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0</v>
+      </c>
+      <c r="J53" s="1">
+        <v>0</v>
+      </c>
+      <c r="K53" s="1">
+        <v>0</v>
+      </c>
+      <c r="L53" s="1">
+        <v>0</v>
+      </c>
+      <c r="M53" s="1">
+        <v>0</v>
+      </c>
+      <c r="N53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="1">
+        <v>2</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" s="1">
+        <v>21</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0</v>
+      </c>
+      <c r="I54" s="1">
+        <v>0</v>
+      </c>
+      <c r="J54" s="1">
+        <v>0</v>
+      </c>
+      <c r="K54" s="1">
+        <v>1</v>
+      </c>
+      <c r="L54" s="1">
+        <v>0</v>
+      </c>
+      <c r="M54" s="1">
+        <v>0</v>
+      </c>
+      <c r="N54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="1">
+        <v>2</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" s="1">
+        <v>31</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0</v>
+      </c>
+      <c r="J55" s="1">
+        <v>0</v>
+      </c>
+      <c r="K55" s="1">
+        <v>0</v>
+      </c>
+      <c r="L55" s="1">
+        <v>0</v>
+      </c>
+      <c r="M55" s="1">
+        <v>0</v>
+      </c>
+      <c r="N55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="1">
+        <v>2</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C56" s="1">
+        <v>30</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0</v>
+      </c>
+      <c r="J56" s="1">
+        <v>0</v>
+      </c>
+      <c r="K56" s="1">
+        <v>1</v>
+      </c>
+      <c r="L56" s="1">
+        <v>9</v>
+      </c>
+      <c r="M56" s="1">
+        <v>8</v>
+      </c>
+      <c r="N56" s="1">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="1">
+        <v>2</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="1">
+        <v>2</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0</v>
+      </c>
+      <c r="J57" s="1">
+        <v>1</v>
+      </c>
+      <c r="K57" s="1">
+        <v>0</v>
+      </c>
+      <c r="L57" s="1">
+        <v>45</v>
+      </c>
+      <c r="M57" s="1">
+        <v>41</v>
+      </c>
+      <c r="N57" s="1">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="1">
+        <v>2</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58" s="1">
+        <v>7</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0</v>
+      </c>
+      <c r="F58" s="1">
+        <v>1</v>
+      </c>
+      <c r="G58" s="1">
+        <v>1</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0</v>
+      </c>
+      <c r="I58" s="1">
+        <v>1</v>
+      </c>
+      <c r="J58" s="1">
+        <v>3</v>
+      </c>
+      <c r="K58" s="1">
+        <v>2</v>
+      </c>
+      <c r="L58" s="1">
+        <v>26</v>
+      </c>
+      <c r="M58" s="1">
+        <v>25</v>
+      </c>
+      <c r="N58" s="1">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="1">
+        <v>2</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" s="1">
+        <v>8</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0</v>
+      </c>
+      <c r="I59" s="1">
+        <v>0</v>
+      </c>
+      <c r="J59" s="1">
+        <v>1</v>
+      </c>
+      <c r="K59" s="1">
+        <v>1</v>
+      </c>
+      <c r="L59" s="1">
+        <v>65</v>
+      </c>
+      <c r="M59" s="1">
+        <v>63</v>
+      </c>
+      <c r="N59" s="1">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" s="1">
+        <v>2</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" s="1">
+        <v>9</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1">
+        <v>1</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0</v>
+      </c>
+      <c r="I60" s="1">
+        <v>0</v>
+      </c>
+      <c r="J60" s="1">
+        <v>2</v>
+      </c>
+      <c r="K60" s="1">
+        <v>1</v>
+      </c>
+      <c r="L60" s="1">
+        <v>25</v>
+      </c>
+      <c r="M60" s="1">
+        <v>20</v>
+      </c>
+      <c r="N60" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="1">
+        <v>2</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61" s="1">
+        <v>10</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E61" s="1">
+        <v>1</v>
+      </c>
+      <c r="F61" s="1">
+        <v>1</v>
+      </c>
+      <c r="G61" s="1">
+        <v>2</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0</v>
+      </c>
+      <c r="I61" s="1">
+        <v>1</v>
+      </c>
+      <c r="J61" s="1">
+        <v>1</v>
+      </c>
+      <c r="K61" s="1">
+        <v>1</v>
+      </c>
+      <c r="L61" s="1">
+        <v>39</v>
+      </c>
+      <c r="M61" s="1">
+        <v>34</v>
+      </c>
+      <c r="N61" s="1">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" s="1">
+        <v>2</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62" s="1">
+        <v>14</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0</v>
+      </c>
+      <c r="H62" s="1">
+        <v>1</v>
+      </c>
+      <c r="I62" s="1">
+        <v>1</v>
+      </c>
+      <c r="J62" s="1">
+        <v>1</v>
+      </c>
+      <c r="K62" s="1">
+        <v>1</v>
+      </c>
+      <c r="L62" s="1">
+        <v>26</v>
+      </c>
+      <c r="M62" s="1">
+        <v>22</v>
+      </c>
+      <c r="N62" s="1">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" s="1">
+        <v>2</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C63" s="1">
+        <v>17</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0</v>
+      </c>
+      <c r="H63" s="1">
+        <v>0</v>
+      </c>
+      <c r="I63" s="1">
+        <v>0</v>
+      </c>
+      <c r="J63" s="1">
+        <v>1</v>
+      </c>
+      <c r="K63" s="1">
+        <v>0</v>
+      </c>
+      <c r="L63" s="1">
+        <v>50</v>
+      </c>
+      <c r="M63" s="1">
+        <v>45</v>
+      </c>
+      <c r="N63" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" s="1">
+        <v>2</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C64" s="1">
+        <v>23</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0</v>
+      </c>
+      <c r="I64" s="1">
+        <v>0</v>
+      </c>
+      <c r="J64" s="1">
+        <v>1</v>
+      </c>
+      <c r="K64" s="1">
+        <v>0</v>
+      </c>
+      <c r="L64" s="1">
+        <v>27</v>
+      </c>
+      <c r="M64" s="1">
+        <v>25</v>
+      </c>
+      <c r="N64" s="1">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="1">
+        <v>2</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65" s="1">
+        <v>24</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0</v>
+      </c>
+      <c r="I65" s="1">
+        <v>0</v>
+      </c>
+      <c r="J65" s="1">
+        <v>0</v>
+      </c>
+      <c r="K65" s="1">
+        <v>2</v>
+      </c>
+      <c r="L65" s="1">
+        <v>56</v>
+      </c>
+      <c r="M65" s="1">
+        <v>49</v>
+      </c>
+      <c r="N65" s="1">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" s="1">
+        <v>2</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C66" s="1">
+        <v>32</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0</v>
+      </c>
+      <c r="G66" s="1">
+        <v>1</v>
+      </c>
+      <c r="H66" s="1">
+        <v>0</v>
+      </c>
+      <c r="I66" s="1">
+        <v>0</v>
+      </c>
+      <c r="J66" s="1">
+        <v>0</v>
+      </c>
+      <c r="K66" s="1">
+        <v>2</v>
+      </c>
+      <c r="L66" s="1">
+        <v>35</v>
+      </c>
+      <c r="M66" s="1">
+        <v>32</v>
+      </c>
+      <c r="N66" s="1">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" s="1">
+        <v>2</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67" s="1">
+        <v>1</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0</v>
+      </c>
+      <c r="I67" s="1">
+        <v>0</v>
+      </c>
+      <c r="J67" s="1">
+        <v>0</v>
+      </c>
+      <c r="K67" s="1">
+        <v>0</v>
+      </c>
+      <c r="L67" s="1">
+        <v>0</v>
+      </c>
+      <c r="M67" s="1">
+        <v>0</v>
+      </c>
+      <c r="N67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" s="1">
+        <v>2</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68" s="1">
+        <v>4</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E68" s="1">
+        <v>0</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0</v>
+      </c>
+      <c r="I68" s="1">
+        <v>0</v>
+      </c>
+      <c r="J68" s="1">
+        <v>0</v>
+      </c>
+      <c r="K68" s="1">
+        <v>0</v>
+      </c>
+      <c r="L68" s="1">
+        <v>0</v>
+      </c>
+      <c r="M68" s="1">
+        <v>0</v>
+      </c>
+      <c r="N68" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="1">
+        <v>2</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69" s="1">
+        <v>5</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E69" s="1">
+        <v>0</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0</v>
+      </c>
+      <c r="I69" s="1">
+        <v>0</v>
+      </c>
+      <c r="J69" s="1">
+        <v>0</v>
+      </c>
+      <c r="K69" s="1">
+        <v>0</v>
+      </c>
+      <c r="L69" s="1">
+        <v>0</v>
+      </c>
+      <c r="M69" s="1">
+        <v>0</v>
+      </c>
+      <c r="N69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="1">
+        <v>2</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70" s="1">
+        <v>21</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0</v>
+      </c>
+      <c r="I70" s="1">
+        <v>0</v>
+      </c>
+      <c r="J70" s="1">
+        <v>0</v>
+      </c>
+      <c r="K70" s="1">
+        <v>0</v>
+      </c>
+      <c r="L70" s="1">
+        <v>0</v>
+      </c>
+      <c r="M70" s="1">
+        <v>0</v>
+      </c>
+      <c r="N70" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="1">
+        <v>2</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C71" s="1">
+        <v>22</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E71" s="1">
+        <v>0</v>
+      </c>
+      <c r="F71" s="1">
+        <v>0</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0</v>
+      </c>
+      <c r="H71" s="1">
+        <v>0</v>
+      </c>
+      <c r="I71" s="1">
+        <v>0</v>
+      </c>
+      <c r="J71" s="1">
+        <v>0</v>
+      </c>
+      <c r="K71" s="1">
+        <v>0</v>
+      </c>
+      <c r="L71" s="1">
+        <v>3</v>
+      </c>
+      <c r="M71" s="1">
+        <v>2</v>
+      </c>
+      <c r="N71" s="1">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" s="1">
+        <v>2</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="1">
+        <v>25</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E72" s="1">
+        <v>0</v>
+      </c>
+      <c r="F72" s="1">
+        <v>0</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0</v>
+      </c>
+      <c r="I72" s="1">
+        <v>0</v>
+      </c>
+      <c r="J72" s="1">
+        <v>0</v>
+      </c>
+      <c r="K72" s="1">
+        <v>0</v>
+      </c>
+      <c r="L72" s="1">
+        <v>0</v>
+      </c>
+      <c r="M72" s="1">
+        <v>0</v>
+      </c>
+      <c r="N72" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" s="1">
+        <v>2</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C73" s="1">
+        <v>27</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E73" s="1">
+        <v>0</v>
+      </c>
+      <c r="F73" s="1">
+        <v>0</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0</v>
+      </c>
+      <c r="H73" s="1">
+        <v>0</v>
+      </c>
+      <c r="I73" s="1">
+        <v>0</v>
+      </c>
+      <c r="J73" s="1">
+        <v>1</v>
+      </c>
+      <c r="K73" s="1">
+        <v>0</v>
+      </c>
+      <c r="L73" s="1">
+        <v>24</v>
+      </c>
+      <c r="M73" s="1">
+        <v>21</v>
+      </c>
+      <c r="N73" s="1">
+        <v>0.88</v>
       </c>
     </row>
   </sheetData>
